--- a/Info/Colours.xlsx
+++ b/Info/Colours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B44DC-1B2A-4985-8292-126712BBC90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FEF818-DD21-4524-B365-F524857F455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -54,9 +57,6 @@
     <t>Proof in box</t>
   </si>
   <si>
-    <t>UNC in coincard</t>
-  </si>
-  <si>
     <t>Colour</t>
   </si>
   <si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>e.g.</t>
+  </si>
+  <si>
+    <t>UNC in coincard or in other original sealing</t>
   </si>
 </sst>
 </file>
@@ -220,15 +223,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -556,7 +551,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,16 +563,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -585,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -599,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -613,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -627,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -641,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -655,23 +650,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -688,7 +683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -705,7 +700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -722,7 +717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -739,7 +734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
